--- a/Aralin Panlipunan Reviewer - 4th Quarter - Departmental.xlsx
+++ b/Aralin Panlipunan Reviewer - 4th Quarter - Departmental.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James A. Ner\Desktop\Schoolworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD16A15-7DD2-489F-B132-EB57FA099F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F71235-5243-41F6-A2FD-606E04FE1885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,41 +487,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,42 +827,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="5" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="18"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -870,21 +870,21 @@
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="3"/>
@@ -894,21 +894,21 @@
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="3"/>
@@ -918,21 +918,21 @@
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="3"/>
@@ -942,21 +942,21 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="3"/>
@@ -966,21 +966,21 @@
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K10" s="3"/>
@@ -990,21 +990,21 @@
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="3"/>
@@ -1013,372 +1013,372 @@
     <row r="12" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="18" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="36" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1391,6 +1391,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1403,5 +1404,6 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>